--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3474245.112117209</v>
+        <v>3470232.502103217</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>283.8333112081181</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -712,19 +712,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>19.4916849718826</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -749,7 +749,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933827</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>134.9994691657081</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -819,16 +819,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>261.263575217308</v>
+        <v>12.40418031676334</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -910,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>52.47750671193609</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396202</v>
@@ -955,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>237.7439220037814</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1065,13 +1065,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>45.02091734557744</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>58.28185552386317</v>
       </c>
     </row>
     <row r="8">
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>179.094487601881</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>94.81275980261395</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>5.546312764596411</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>203.7029035467952</v>
       </c>
     </row>
     <row r="11">
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722604</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428172</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>140.7058473537595</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>175.3253504652194</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1900,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2010,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>15.76045942438941</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>180.2628815644441</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>93.4044447618827</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2380,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2484,16 +2484,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>3.006892987834117</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576166</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2766,7 +2766,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>90.69284018412978</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2955,16 +2955,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -3012,10 +3012,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>14.53306611597334</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695709</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176103</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -3474,7 +3474,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>28.87857325623944</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3663,22 +3663,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>101.3999237630426</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3906,19 +3906,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>21.90286287505374</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>136.1078891637031</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1887.813801820605</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="C2" t="n">
-        <v>1518.851284880193</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D2" t="n">
         <v>1232.150970528558</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410101</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066531</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W2" t="n">
-        <v>2277.953133796416</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X2" t="n">
-        <v>2277.953133796416</v>
+        <v>2736.118358115654</v>
       </c>
       <c r="Y2" t="n">
-        <v>1887.813801820605</v>
+        <v>2345.979026139843</v>
       </c>
     </row>
     <row r="3">
@@ -4385,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
         <v>312.3844025601599</v>
@@ -4433,28 +4433,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>214.4252100145765</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C4" t="n">
-        <v>214.4252100145765</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D4" t="n">
-        <v>214.4252100145765</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E4" t="n">
-        <v>66.5121164321834</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
         <v>66.5121164321834</v>
@@ -4518,22 +4518,22 @@
         <v>920.8870058181845</v>
       </c>
       <c r="T4" t="n">
-        <v>699.1203903877106</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U4" t="n">
-        <v>699.1203903877106</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V4" t="n">
-        <v>699.1203903877106</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W4" t="n">
-        <v>435.2177891581066</v>
+        <v>908.3575307507468</v>
       </c>
       <c r="X4" t="n">
-        <v>435.2177891581066</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="Y4" t="n">
-        <v>214.4252100145765</v>
+        <v>680.3679798527295</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2005.586939522201</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="C5" t="n">
-        <v>1636.624422581789</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D5" t="n">
-        <v>1278.358723975039</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E5" t="n">
-        <v>892.5704713767946</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G5" t="n">
         <v>66.51211643218342</v>
@@ -4570,16 +4570,16 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4594,25 +4594,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3272.598239071861</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3066.620491456084</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>3066.620491456084</v>
       </c>
       <c r="V5" t="n">
-        <v>2769.192029759092</v>
+        <v>2735.557604112513</v>
       </c>
       <c r="W5" t="n">
-        <v>2769.192029759092</v>
+        <v>2382.788948842398</v>
       </c>
       <c r="X5" t="n">
-        <v>2395.726271498012</v>
+        <v>2009.323190581319</v>
       </c>
       <c r="Y5" t="n">
-        <v>2005.586939522201</v>
+        <v>1619.183858605507</v>
       </c>
     </row>
     <row r="6">
@@ -4622,64 +4622,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>410.0175235133541</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C7" t="n">
-        <v>410.0175235133541</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>259.9008841010184</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E7" t="n">
-        <v>111.9877905186253</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>111.9877905186253</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>111.9877905186253</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
         <v>66.51211643218342</v>
@@ -4755,22 +4755,22 @@
         <v>920.8870058181845</v>
       </c>
       <c r="T7" t="n">
-        <v>699.1203903877106</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U7" t="n">
-        <v>410.0175235133541</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V7" t="n">
-        <v>410.0175235133541</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W7" t="n">
-        <v>410.0175235133541</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X7" t="n">
-        <v>410.0175235133541</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y7" t="n">
-        <v>410.0175235133541</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1976.204921733553</v>
+        <v>1771.41801219738</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1402.455495256969</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1044.189796650218</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>658.4015440519738</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>247.4156392623663</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794323</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450752</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180638</v>
+        <v>2531.483610522582</v>
       </c>
       <c r="X8" t="n">
-        <v>1976.204921733553</v>
+        <v>2158.017852261502</v>
       </c>
       <c r="Y8" t="n">
-        <v>1976.204921733553</v>
+        <v>2158.017852261502</v>
       </c>
     </row>
     <row r="9">
@@ -4859,70 +4859,70 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>218.3316393401806</v>
+        <v>533.4780323548192</v>
       </c>
       <c r="C10" t="n">
-        <v>218.3316393401806</v>
+        <v>364.5418494269123</v>
       </c>
       <c r="D10" t="n">
-        <v>218.3316393401806</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>218.3316393401806</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>218.3316393401806</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>218.3316393401806</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>72.11445255803835</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068853</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S10" t="n">
-        <v>729.201121645011</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T10" t="n">
-        <v>507.434506214537</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U10" t="n">
-        <v>218.3316393401806</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V10" t="n">
-        <v>218.3316393401806</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="W10" t="n">
-        <v>218.3316393401806</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="X10" t="n">
-        <v>218.3316393401806</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.3316393401806</v>
+        <v>715.126497185059</v>
       </c>
     </row>
     <row r="11">
@@ -5017,31 +5017,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075798</v>
@@ -5050,43 +5050,43 @@
         <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>554.5813165460164</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>385.6451336181095</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2237.790261293512</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2018.188796316454</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1729.113569660651</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1474.429081454764</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1185.011911417804</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>957.0223605197863</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>736.2297813762561</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5269,19 +5269,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5311,10 +5311,10 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5354,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1468.439756756785</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5436,52 +5436,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1272.7575184984</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1051.96493935487</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5497,10 +5497,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5512,22 +5512,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>800.5007694647277</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C19" t="n">
-        <v>631.5645865368208</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D19" t="n">
-        <v>481.447947124485</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E19" t="n">
-        <v>333.5348535420919</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>333.5348535420919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1202.941813438498</v>
+        <v>962.2004768598947</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1492342949674</v>
+        <v>741.4078977163646</v>
       </c>
     </row>
     <row r="20">
@@ -5734,13 +5734,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5983,19 +5983,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
@@ -6007,7 +6007,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852255</v>
@@ -6028,10 +6028,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>264.0500279773688</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,34 +6214,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075801</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>641.8461362382112</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>472.9099533103043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>322.7933138979686</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E28" t="n">
-        <v>322.7933138979686</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F28" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
@@ -6414,22 +6414,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2105.453616008648</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1816.378389352846</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1561.693901146959</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1272.276731109998</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1044.287180211981</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>823.4946010684509</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6539,25 +6539,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6660,13 +6660,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1419.02150088521</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,34 +6925,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6961,7 +6961,7 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2350.747103816259</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2131.145638839201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1842.070412183399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1587.385923977512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7156,37 +7156,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>699.2677182139842</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>530.3315352860773</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D40" t="n">
-        <v>530.3315352860773</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E40" t="n">
-        <v>382.4184417036842</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F40" t="n">
-        <v>235.5284942057738</v>
+        <v>366.9636532421608</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>199.7675539570408</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>880.9161830442239</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7493,16 +7493,16 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>322.7933138979686</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7639,19 +7639,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>558.0193492433381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>558.0193492433381</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>57.22910392194217</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>40.32043864788506</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4.506629716717924</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>149.7636788678794</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24372,16 +24372,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>142.4141550350971</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>126.7126101431585</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24843,16 +24843,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24900,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>271.9899322206177</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,10 +25089,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>152.1477127454052</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25551,22 +25551,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>35.40333084624568</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>117.1847295890522</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25794,19 +25794,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>124.5310997715154</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>43.72409101823416</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>681144.5438695629</v>
+        <v>681144.5438695628</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>681144.5438695629</v>
+        <v>681144.5438695628</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>681144.543869563</v>
+        <v>681144.5438695628</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>681144.5438695629</v>
+        <v>681144.5438695628</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>681144.5438695628</v>
+        <v>681144.5438695629</v>
       </c>
     </row>
     <row r="11">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244625</v>
+        <v>759463.6371244628</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244626</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244625</v>
+        <v>759463.6371244624</v>
       </c>
       <c r="E2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="F2" t="n">
         <v>746610.6047132554</v>
       </c>
       <c r="G2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="H2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="I2" t="n">
         <v>746610.6047132552</v>
@@ -26340,22 +26340,22 @@
         <v>746610.6047132553</v>
       </c>
       <c r="K2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="L2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="M2" t="n">
         <v>746610.6047132552</v>
-      </c>
-      <c r="M2" t="n">
-        <v>746610.6047132553</v>
       </c>
       <c r="N2" t="n">
         <v>746610.6047132552</v>
       </c>
       <c r="O2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="P2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132552</v>
       </c>
     </row>
     <row r="3">
@@ -26371,13 +26371,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.894519977620803e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073557</v>
+        <v>325412.4618073546</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.100233243458205e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.7441040526</v>
+        <v>93596.74410405259</v>
       </c>
       <c r="C4" t="n">
         <v>93596.74410405254</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.7441040526</v>
+        <v>93596.74410405249</v>
       </c>
       <c r="E4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189206</v>
       </c>
       <c r="F4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189198</v>
       </c>
       <c r="G4" t="n">
         <v>16046.58397189197</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-770811.7932685758</v>
+        <v>-770811.7932685754</v>
       </c>
       <c r="C6" t="n">
+        <v>557932.9524590168</v>
+      </c>
+      <c r="D6" t="n">
         <v>557932.9524590163</v>
       </c>
-      <c r="D6" t="n">
-        <v>557932.9524590166</v>
-      </c>
       <c r="E6" t="n">
-        <v>304029.0291101005</v>
+        <v>303681.6498557444</v>
       </c>
       <c r="F6" t="n">
-        <v>629441.4909174563</v>
+        <v>629094.111663099</v>
       </c>
       <c r="G6" t="n">
-        <v>629441.4909174562</v>
+        <v>629094.1116630991</v>
       </c>
       <c r="H6" t="n">
-        <v>629441.4909174562</v>
+        <v>629094.1116630991</v>
       </c>
       <c r="I6" t="n">
-        <v>629441.4909174561</v>
+        <v>629094.1116630991</v>
       </c>
       <c r="J6" t="n">
-        <v>411910.2885201788</v>
+        <v>411562.9092658218</v>
       </c>
       <c r="K6" t="n">
-        <v>629441.4909174562</v>
+        <v>629094.1116630991</v>
       </c>
       <c r="L6" t="n">
-        <v>629441.4909174561</v>
+        <v>629094.111663099</v>
       </c>
       <c r="M6" t="n">
-        <v>544386.4629819443</v>
+        <v>544039.0837275872</v>
       </c>
       <c r="N6" t="n">
-        <v>629441.4909174561</v>
+        <v>629094.1116630991</v>
       </c>
       <c r="O6" t="n">
-        <v>629441.4909174563</v>
+        <v>629094.1116630991</v>
       </c>
       <c r="P6" t="n">
-        <v>629441.4909174562</v>
+        <v>629094.1116630991</v>
       </c>
     </row>
   </sheetData>
@@ -26694,16 +26694,16 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26721,7 +26721,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26743,7 +26743,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,10 +26795,10 @@
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.401455402293</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26822,7 +26822,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26965,13 +26965,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.198799748375</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973549</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973549</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>70.84973041256484</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27432,19 +27432,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>350.2394157065864</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27469,7 +27469,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27539,16 +27539,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -27590,7 +27590,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>25.25942311928304</v>
+        <v>274.1188180198276</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>56.71025507623975</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27675,10 +27675,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>90.00833646635351</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27785,13 +27785,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>99.73409756874335</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983812</v>
@@ -27827,10 +27827,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>160.3027978282316</v>
       </c>
     </row>
     <row r="8">
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>231.8272380515725</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,10 +27906,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>274.9183408758551</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28028,10 +28028,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>90.80610764524171</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>14.88174980529956</v>
       </c>
     </row>
     <row r="11">
@@ -28089,16 +28089,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1.414636683656336e-12</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28158,7 +28158,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970252</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>463.9598929192562</v>
       </c>
       <c r="O12" t="n">
-        <v>333.9544784328822</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32320,22 +32320,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>279.2419622547062</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32560,13 +32560,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32800,16 +32800,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>230.1272937575231</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32970,7 +32970,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
         <v>125.31755462929</v>
@@ -33022,13 +33022,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33201,10 +33201,10 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33259,16 +33259,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33277,10 +33277,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33429,7 +33429,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
         <v>981.2715114159425</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,13 +33514,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>164.9290651940687</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043748</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33751,13 +33751,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>156.3072281639545</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33894,7 +33894,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33982,19 +33982,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>340.4395077511235</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34213,7 +34213,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34444,34 +34444,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966699</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014217</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>332.6181808359229</v>
       </c>
       <c r="O12" t="n">
-        <v>191.3582339884378</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,22 +35968,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>140.6875824748321</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36208,13 +36208,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36448,16 +36448,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>98.78558167418976</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36849,10 +36849,10 @@
         <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,10 +36925,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37077,7 +37077,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,13 +37162,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>22.33282074962425</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902427</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37399,13 +37399,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37630,19 +37630,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>197.843263306679</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37861,7 +37861,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3470232.502103217</v>
+        <v>3471993.032406001</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>19.4916849718826</v>
+        <v>19.49168497188485</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7871683969292</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>12.40418031676334</v>
+        <v>12.40418031676424</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>52.47750671193609</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>68.11015198958361</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1065,7 +1065,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>58.28185552386317</v>
+        <v>203.7029035467952</v>
       </c>
     </row>
     <row r="8">
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>179.094487601881</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>277.3605237366022</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>203.7029035467952</v>
+        <v>203.7029035467948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722604</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1435,10 +1435,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1539,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428172</v>
+        <v>108.5163679066134</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2010,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>172.026033500079</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>180.2628815644441</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2371,7 +2371,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576166</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206824</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,19 +3189,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>120.7871326503972</v>
       </c>
       <c r="G34" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695709</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>27.02919805176103</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>104.8913819999782</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>41.74133133758761</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4327,49 +4327,49 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912083</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="W2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="X2" t="n">
         <v>2736.118358115654</v>
@@ -4406,40 +4406,40 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
         <v>2014.760455431608</v>
@@ -4470,61 +4470,61 @@
         <v>511.4317969248226</v>
       </c>
       <c r="D4" t="n">
-        <v>361.3151575124868</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E4" t="n">
         <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962283</v>
+        <v>78.33486996962293</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588486</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886962</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068853</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="W4" t="n">
         <v>908.3575307507468</v>
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1232.584018541385</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.584018541385</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D5" t="n">
-        <v>874.3183199346347</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E5" t="n">
-        <v>488.5300673363904</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>77.54416254678287</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3272.598239071861</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3066.620491456084</v>
+        <v>3146.517019813456</v>
       </c>
       <c r="U5" t="n">
-        <v>3066.620491456084</v>
+        <v>3146.517019813456</v>
       </c>
       <c r="V5" t="n">
-        <v>2735.557604112513</v>
+        <v>3146.517019813456</v>
       </c>
       <c r="W5" t="n">
-        <v>2382.788948842398</v>
+        <v>2793.748364543341</v>
       </c>
       <c r="X5" t="n">
-        <v>2009.323190581319</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="Y5" t="n">
-        <v>1619.183858605507</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4667,7 +4667,7 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125857</v>
@@ -4676,16 +4676,16 @@
         <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>680.3679798527295</v>
+        <v>533.4780323548192</v>
       </c>
       <c r="C7" t="n">
-        <v>511.4317969248226</v>
+        <v>364.5418494269123</v>
       </c>
       <c r="D7" t="n">
-        <v>361.3151575124869</v>
+        <v>214.4252100145766</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962293</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588486</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886962</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068853</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="W7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="X7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="Y7" t="n">
-        <v>862.0164446829692</v>
+        <v>715.126497185059</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1771.41801219738</v>
+        <v>1881.708680670284</v>
       </c>
       <c r="C8" t="n">
-        <v>1402.455495256969</v>
+        <v>1512.746163729872</v>
       </c>
       <c r="D8" t="n">
-        <v>1044.189796650218</v>
+        <v>1154.480465123122</v>
       </c>
       <c r="E8" t="n">
-        <v>658.4015440519738</v>
+        <v>768.6922125248775</v>
       </c>
       <c r="F8" t="n">
-        <v>247.4156392623663</v>
+        <v>357.7063077352699</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>346.6742616206705</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792696</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.483610522582</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X8" t="n">
-        <v>2158.017852261502</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y8" t="n">
-        <v>2158.017852261502</v>
+        <v>2268.308520734406</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927783</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4901,34 +4901,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>533.4780323548192</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C10" t="n">
-        <v>364.5418494269123</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D10" t="n">
         <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962291</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y10" t="n">
-        <v>715.126497185059</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,22 +5114,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273898</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803936</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516141</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793924</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
         <v>2001.151557821488</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>452.7119585201414</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270443</v>
+        <v>285.5158592350213</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="14">
@@ -5269,19 +5269,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5296,16 +5296,16 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5314,7 +5314,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5515,22 +5515,22 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,13 +5591,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>559.7594328861248</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C19" t="n">
-        <v>390.823249958218</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D19" t="n">
-        <v>240.7066105458822</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X19" t="n">
-        <v>962.2004768598947</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>741.4078977163646</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5740,7 +5740,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,7 +5749,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5761,10 +5761,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5949,13 +5949,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5983,31 +5983,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852255</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6138,7 +6138,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6217,19 +6217,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797176</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192588</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075801</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332386</v>
@@ -6241,19 +6241,19 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6366,22 +6366,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6469,13 +6469,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6490,10 +6490,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466572</v>
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6615,10 +6615,10 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6694,55 +6694,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D34" t="n">
-        <v>194.8007783998286</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E34" t="n">
-        <v>194.8007783998286</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="F34" t="n">
-        <v>194.8007783998286</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6925,43 +6925,43 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803938</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578603</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7156,67 +7156,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>366.9636532421608</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>199.7675539570408</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,34 +7399,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7548,16 +7548,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7569,28 +7569,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2437.724555511392</v>
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7645,25 +7645,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
   </sheetData>
@@ -23427,16 +23427,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194217</v>
+        <v>31.77834493961046</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>45.44677382459309</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24378,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>121.5862749664513</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194223</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>24.63391537253405</v>
       </c>
       <c r="G34" t="n">
-        <v>65.54986409393069</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393022</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25560,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>35.40333084624568</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>125.5054897610402</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>681144.5438695628</v>
+        <v>681144.5438695629</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>681144.5438695628</v>
+        <v>681144.543869563</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>681144.5438695629</v>
+        <v>681144.5438695628</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>681144.5438695629</v>
+        <v>681144.5438695628</v>
       </c>
     </row>
     <row r="14">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244628</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244626</v>
+        <v>759463.6371244624</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244625</v>
       </c>
       <c r="E2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="F2" t="n">
         <v>746610.6047132552</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>746610.6047132554</v>
-      </c>
-      <c r="G2" t="n">
-        <v>746610.6047132552</v>
       </c>
       <c r="H2" t="n">
         <v>746610.6047132552</v>
@@ -26343,19 +26343,19 @@
         <v>746610.6047132552</v>
       </c>
       <c r="L2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="M2" t="n">
         <v>746610.6047132552</v>
       </c>
       <c r="N2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="O2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.604713255</v>
       </c>
       <c r="P2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132553</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.894519977620803e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073546</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
-        <v>3.100233243458205e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405259</v>
+        <v>93596.74410405246</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405246</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405249</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="E4" t="n">
-        <v>16046.58397189206</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="F4" t="n">
-        <v>16046.58397189198</v>
+        <v>16046.58397189192</v>
       </c>
       <c r="G4" t="n">
         <v>16046.58397189197</v>
@@ -26444,7 +26444,7 @@
         <v>16046.58397189197</v>
       </c>
       <c r="K4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189201</v>
       </c>
       <c r="L4" t="n">
         <v>16046.58397189197</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-770811.7932685754</v>
+        <v>-770811.7932685765</v>
       </c>
       <c r="C6" t="n">
-        <v>557932.9524590168</v>
+        <v>557932.9524590166</v>
       </c>
       <c r="D6" t="n">
-        <v>557932.9524590163</v>
+        <v>557932.952459017</v>
       </c>
       <c r="E6" t="n">
-        <v>303681.6498557444</v>
+        <v>303994.2911846651</v>
       </c>
       <c r="F6" t="n">
-        <v>629094.111663099</v>
+        <v>629406.7529920205</v>
       </c>
       <c r="G6" t="n">
-        <v>629094.1116630991</v>
+        <v>629406.7529920207</v>
       </c>
       <c r="H6" t="n">
-        <v>629094.1116630991</v>
+        <v>629406.7529920206</v>
       </c>
       <c r="I6" t="n">
-        <v>629094.1116630991</v>
+        <v>629406.7529920205</v>
       </c>
       <c r="J6" t="n">
-        <v>411562.9092658218</v>
+        <v>411875.5505947429</v>
       </c>
       <c r="K6" t="n">
-        <v>629094.1116630991</v>
+        <v>629406.7529920205</v>
       </c>
       <c r="L6" t="n">
-        <v>629094.111663099</v>
+        <v>629406.7529920205</v>
       </c>
       <c r="M6" t="n">
-        <v>544039.0837275872</v>
+        <v>544351.7250565087</v>
       </c>
       <c r="N6" t="n">
-        <v>629094.1116630991</v>
+        <v>629406.7529920205</v>
       </c>
       <c r="O6" t="n">
-        <v>629094.1116630991</v>
+        <v>629406.7529920202</v>
       </c>
       <c r="P6" t="n">
-        <v>629094.1116630991</v>
+        <v>629406.7529920206</v>
       </c>
     </row>
   </sheetData>
@@ -26694,16 +26694,16 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26721,7 +26721,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>1089.776700593299</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1089.776700593299</v>
+      </c>
+      <c r="D3" t="n">
         <v>1089.776700593298</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1089.776700593298</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
+        <v>831.4014554022931</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="D4" t="n">
-        <v>831.401455402293</v>
-      </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26819,13 +26819,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.198799748375</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973549</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973549</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>350.2394157065864</v>
+        <v>350.2394157065842</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>274.1188180198276</v>
+        <v>274.1188180198268</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>56.71025507623975</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>135.8078181500365</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27785,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27794,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>160.3027978282316</v>
+        <v>14.88174980529956</v>
       </c>
     </row>
     <row r="8">
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>231.8272380515725</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>17.24724065071825</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>14.88174980529956</v>
+        <v>14.88174980530002</v>
       </c>
     </row>
     <row r="11">
@@ -28089,16 +28089,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.414636683656336e-12</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28158,7 +28158,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,10 +28377,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -29511,7 +29511,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N12" t="n">
-        <v>463.9598929192562</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32490,7 +32490,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
         <v>593.8732233669223</v>
@@ -33204,7 +33204,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043748</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966699</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014217</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966699</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014217</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N12" t="n">
-        <v>332.6181808359229</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,16 +35731,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36138,7 +36138,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924728</v>
@@ -36852,7 +36852,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902427</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
